--- a/sprint_1_bd/exercicios_01/1.0-exercicio-filmes/01_modelagem_fisico.xlsx
+++ b/sprint_1_bd/exercicios_01/1.0-exercicio-filmes/01_modelagem_fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulo.santos\Downloads\SENAI\CT\2021-2S-2D\senai-dev-2s2021-alunos\sprint-1-bd\exercicios\manha\1.0-exercicio-filmes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\SENAI_2\sprint_1_bd\exercicios_01\1.0-exercicio-filmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{996F6A26-5B8C-4681-BF9F-D97F11AC4595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFB70C5-C394-446C-9FD1-F43E14D748A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-36" windowWidth="23256" windowHeight="12576" xr2:uid="{1F1821F2-7D6C-401C-807C-1130C7F87F3F}"/>
   </bookViews>
@@ -165,9 +165,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +176,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -197,6 +197,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>363959</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF79D75A-1350-43EB-A7F2-6D7C1E7E8BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1280160"/>
+          <a:ext cx="18290553" cy="10288436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>363959</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>47156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CEE054B-23E1-43DA-A2D5-01E46801DD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12984480"/>
+          <a:ext cx="18290553" cy="10288436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>363959</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B223BC-2C70-460F-863E-2EB87C710B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23591520"/>
+          <a:ext cx="18290553" cy="10288436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>363959</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>47156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F260A9-1070-4D39-8195-41D56DC11985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34747200"/>
+          <a:ext cx="18290553" cy="10288436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9AE024-D46E-484B-ACE1-3E44B91D7D8C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B190" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,10 +690,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="10"/>
       <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
@@ -526,13 +707,13 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -543,13 +724,13 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -560,35 +741,35 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -599,5 +780,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>